--- a/biology/Botanique/Polyphlebium_colensoi/Polyphlebium_colensoi.xlsx
+++ b/biology/Botanique/Polyphlebium_colensoi/Polyphlebium_colensoi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polyphlebium colensoi est une fougère de la famille des Hyménophyllacées, endémique de Nouvelle-Zélande.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En plus des caractéristiques du genre, cette espèce est remarquable par la très grande longueur du style du sore. Par ailleurs, les frondes sont courtes et divisées deux fois.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente uniquement en Nouvelle-Zélande, dans l'île du Nord (espèce endémique).
 </t>
@@ -573,12 +589,14 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 1854, Joseph Dalton Hooker publie la description de cette espèce à partir d'un exemplaire collecté par William Colenso dans le centre de l'île du nord de Nouvelle-Zélande en la dédicaçant à son collecteur[1]. Il associe à cette description tant son collecteur que son père William Jackson Hooker.
-En 1938, Edwin Bingham Copeland la classe dans le genre Vandenboschia : Vandenboschia colensoi (Hook.f.) Copel.[2]. En 1933, il l'avait placé dans le groupe Pyxidiferum[3] : ce classement préfigure la position actuelle de cette espèce.
-En 1968, Conrad Vernon Morton la place dans la section Lacosteopsis du sous-genre Trichomanes du genre Trichomanes[4].
-En 2006, Atsushi Ebihara &amp; Kunio Iwatsuki la déplace dans le genre Polyphlebium[5]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 1854, Joseph Dalton Hooker publie la description de cette espèce à partir d'un exemplaire collecté par William Colenso dans le centre de l'île du nord de Nouvelle-Zélande en la dédicaçant à son collecteur. Il associe à cette description tant son collecteur que son père William Jackson Hooker.
+En 1938, Edwin Bingham Copeland la classe dans le genre Vandenboschia : Vandenboschia colensoi (Hook.f.) Copel.. En 1933, il l'avait placé dans le groupe Pyxidiferum : ce classement préfigure la position actuelle de cette espèce.
+En 1968, Conrad Vernon Morton la place dans la section Lacosteopsis du sous-genre Trichomanes du genre Trichomanes.
+En 2006, Atsushi Ebihara &amp; Kunio Iwatsuki la déplace dans le genre Polyphlebium
 Elle compte donc deux synonymes :
 Trichomanes colensoi Hook.f..
 Vandenboschia colensoi (Hook.f.) Copel.</t>
